--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfdm1m17\git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejjpfd\AppData\Local\0 git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Never</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>starting_value2</t>
+  </si>
+  <si>
+    <t>changed?</t>
+  </si>
+  <si>
+    <t>Y: chains were stuck at minimum (2)</t>
+  </si>
+  <si>
+    <t>Y: chains were stuck at minimum (12.5)</t>
   </si>
 </sst>
 </file>
@@ -515,22 +524,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -550,28 +559,31 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -594,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -618,46 +630,46 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-      <c r="H3" t="str">
-        <f>A3&amp;" ~ unif("&amp;F3&amp;", "&amp;G3&amp;");"</f>
-        <v>F2 ~ unif(0.1, 0.5);</v>
-      </c>
       <c r="I3" t="str">
-        <f>"real "&amp;A3&amp;";"</f>
+        <f>A3&amp;" ~ uniform("&amp;F3&amp;", "&amp;G3&amp;");"</f>
+        <v>F2 ~ uniform(0.1, 0.5);</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J19" si="0">"real "&amp;A3&amp;";"</f>
         <v>real F2;</v>
       </c>
-      <c r="J3" t="str">
-        <f>"vector[N] "&amp;"audit"&amp;K3&amp;"_"&amp;L3&amp;";"</f>
+      <c r="K3" t="str">
+        <f>"vector[N] "&amp;"audit"&amp;L3&amp;"_"&amp;M3&amp;";"</f>
         <v>vector[N] audit1_2;</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>(E3-D3)/2 +D3</f>
         <v>0.17260273972602741</v>
       </c>
-      <c r="N3">
-        <f>(E3-D3)/1.5 +D3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="1">(E3-D3)/1.5 +D3</f>
         <v>0.19178082191780821</v>
-      </c>
-      <c r="O3" t="str">
-        <f>$A3&amp;" = "&amp;ROUND(M3, 3)&amp;", "</f>
-        <v xml:space="preserve">F2 = 0.173, </v>
       </c>
       <c r="P3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(N3, 3)&amp;", "</f>
+        <v xml:space="preserve">F2 = 0.173, </v>
+      </c>
+      <c r="Q3" t="str">
+        <f>$A3&amp;" = "&amp;ROUND(O3, 3)&amp;", "</f>
         <v xml:space="preserve">F2 = 0.192, </v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>"'"&amp;A2&amp;"', "</f>
         <v xml:space="preserve">'F1', </v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -679,48 +691,48 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="str">
-        <f>A4&amp;" ~ unif("&amp;F4&amp;", "&amp;G4&amp;");"</f>
-        <v>F3 ~ unif(0.5, 2);</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="str">
-        <f>"real "&amp;A4&amp;";"</f>
+        <f t="shared" ref="I4:I19" si="2">A4&amp;" ~ uniform("&amp;F4&amp;", "&amp;G4&amp;");"</f>
+        <v>F3 ~ uniform(0.5, 1.5);</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
         <v>real F3;</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J19" si="0">"vector[N] "&amp;"audit"&amp;K4&amp;"_"&amp;L4&amp;";"</f>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K19" si="3">"vector[N] "&amp;"audit"&amp;L4&amp;"_"&amp;M4&amp;";"</f>
         <v>vector[N] audit1_3;</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>(E4-D4)/2 +D4</f>
         <v>0.69041095890410964</v>
       </c>
-      <c r="N4">
-        <f>(E4-D4)/1.5 +D4</f>
+      <c r="O4">
+        <f t="shared" si="1"/>
         <v>0.76712328767123283</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O19" si="1">$A4&amp;" = "&amp;ROUND(M4, 3)&amp;", "</f>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P19" si="4">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.69, </v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P19" si="2">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q19" si="5">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.767, </v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R19" si="3">"'"&amp;A3&amp;"', "</f>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S19" si="6">"'"&amp;A3&amp;"', "</f>
         <v xml:space="preserve">'F2', </v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -737,51 +749,52 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
         <v>3.5</v>
       </c>
-      <c r="H5" t="str">
-        <f>A5&amp;" ~ unif("&amp;F5&amp;", "&amp;G5&amp;");"</f>
-        <v>F4 ~ unif(2, 3.5);</v>
+      <c r="H5" t="s">
+        <v>59</v>
       </c>
       <c r="I5" t="str">
-        <f>"real "&amp;A5&amp;";"</f>
-        <v>real F4;</v>
+        <f t="shared" si="2"/>
+        <v>F4 ~ uniform(1.5, 3.5);</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
+        <v>real F4;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_4;</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5">
-        <f>(E5-D5)/2 +D5</f>
+      <c r="N5">
+        <v>2.1</v>
+      </c>
+      <c r="O5">
         <v>2.5</v>
       </c>
-      <c r="N5">
-        <f>(E5-D5)/1.5 +D5</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
+      <c r="P5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">F4 = 2.1, </v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F4 = 2.5, </v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">F4 = 2.667, </v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="3"/>
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F3', </v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -803,46 +816,46 @@
       <c r="G6">
         <v>5.5</v>
       </c>
-      <c r="H6" t="str">
-        <f>A6&amp;" ~ unif("&amp;F6&amp;", "&amp;G6&amp;");"</f>
-        <v>F5 ~ unif(3.5, 5.5);</v>
-      </c>
       <c r="I6" t="str">
-        <f>"real "&amp;A6&amp;";"</f>
-        <v>real F5;</v>
+        <f t="shared" si="2"/>
+        <v>F5 ~ uniform(3.5, 5.5);</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
+        <v>real F5;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_5;</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>(E6-D6)/2 +D6</f>
         <v>4.5</v>
       </c>
-      <c r="N6">
-        <f>(E6-D6)/1.5 +D6</f>
+      <c r="O6">
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
+      <c r="P6" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">F5 = 4.5, </v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F5 = 4.667, </v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="3"/>
+      <c r="S6" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F4', </v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -864,46 +877,46 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" t="str">
-        <f>A7&amp;" ~ unif("&amp;F7&amp;", "&amp;G7&amp;");"</f>
-        <v>F6 ~ unif(5.5, 7);</v>
-      </c>
       <c r="I7" t="str">
-        <f>"real "&amp;A7&amp;";"</f>
-        <v>real F6;</v>
+        <f t="shared" si="2"/>
+        <v>F6 ~ uniform(5.5, 7);</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
+        <v>real F6;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_6;</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M13" si="4">(E7-D7)/2 +D7</f>
+      <c r="N7">
+        <f t="shared" ref="N7:N13" si="7">(E7-D7)/2 +D7</f>
         <v>6.5</v>
       </c>
-      <c r="N7">
-        <f>(E7-D7)/1.5 +D7</f>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="1"/>
+      <c r="P7" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">F6 = 6.5, </v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F6 = 6.667, </v>
       </c>
-      <c r="R7" t="str">
-        <f t="shared" si="3"/>
+      <c r="S7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F5', </v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -923,49 +936,49 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="5">E8+0.5</f>
+        <f t="shared" ref="G8:G10" si="8">E8+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="H8" t="str">
-        <f>A8&amp;" ~ unif("&amp;F8&amp;", "&amp;G8&amp;");"</f>
-        <v>Q1 ~ unif(1, 2.5);</v>
-      </c>
       <c r="I8" t="str">
-        <f>"real "&amp;A8&amp;";"</f>
-        <v>real Q1;</v>
+        <f t="shared" si="2"/>
+        <v>Q1 ~ uniform(1, 2.5);</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
+        <v>real Q1;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_1;</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="M8">
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="N8">
-        <f>(E8-D8)/1.5 +D8</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q1 = 1.5, </v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q1 = 1.667, </v>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="3"/>
+      <c r="S8" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F6', </v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -982,53 +995,53 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="6">D9-0.5</f>
+        <f t="shared" ref="F9:F10" si="9">D9-0.5</f>
         <v>2.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="H9" t="str">
-        <f>A9&amp;" ~ unif("&amp;F9&amp;", "&amp;G9&amp;");"</f>
-        <v>Q2 ~ unif(2.5, 4.5);</v>
-      </c>
       <c r="I9" t="str">
-        <f>"real "&amp;A9&amp;";"</f>
-        <v>real Q2;</v>
+        <f t="shared" si="2"/>
+        <v>Q2 ~ uniform(2.5, 4.5);</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
+        <v>real Q2;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_2;</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <f>(E9-D9)/1.5 +D9</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q2 = 3.5, </v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q9" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q2 = 3.667, </v>
       </c>
-      <c r="R9" t="str">
-        <f t="shared" si="3"/>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q1', </v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1045,53 +1058,53 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
-      <c r="H10" t="str">
-        <f>A10&amp;" ~ unif("&amp;F10&amp;", "&amp;G10&amp;");"</f>
-        <v>Q3 ~ unif(4.5, 6.5);</v>
-      </c>
       <c r="I10" t="str">
-        <f>"real "&amp;A10&amp;";"</f>
-        <v>real Q3;</v>
+        <f t="shared" si="2"/>
+        <v>Q3 ~ uniform(4.5, 6.5);</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
+        <v>real Q3;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_3;</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N10">
-        <f>(E10-D10)/1.5 +D10</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q3 = 5.5, </v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q10" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q3 = 5.667, </v>
       </c>
-      <c r="R10" t="str">
-        <f t="shared" si="3"/>
+      <c r="S10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q2', </v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1115,46 +1128,46 @@
         <f>E11+0.5</f>
         <v>9.5</v>
       </c>
-      <c r="H11" t="str">
-        <f>A11&amp;" ~ unif("&amp;F11&amp;", "&amp;G11&amp;");"</f>
-        <v>Q4 ~ unif(6.5, 9.5);</v>
-      </c>
       <c r="I11" t="str">
-        <f>"real "&amp;A11&amp;";"</f>
-        <v>real Q4;</v>
+        <f t="shared" si="2"/>
+        <v>Q4 ~ uniform(6.5, 9.5);</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
+        <v>real Q4;</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_4;</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <f>(E11-D11)/1.5 +D11</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q4 = 8, </v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q11" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q4 = 8.333, </v>
       </c>
-      <c r="R11" t="str">
-        <f t="shared" si="3"/>
+      <c r="S11" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q3', </v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1171,53 +1184,52 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="7">D12-0.5</f>
+        <f t="shared" ref="F12:F14" si="10">D12-0.5</f>
         <v>9.5</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G13" si="8">E12+0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="H12" t="str">
-        <f>A12&amp;" ~ unif("&amp;F12&amp;", "&amp;G12&amp;");"</f>
-        <v>Q5 ~ unif(9.5, 12.5);</v>
+        <v>12</v>
       </c>
       <c r="I12" t="str">
-        <f>"real "&amp;A12&amp;";"</f>
-        <v>real Q5;</v>
+        <f t="shared" si="2"/>
+        <v>Q5 ~ uniform(9.5, 12);</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
+        <v>real Q5;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_5;</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="M12">
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f>(E12-D12)/1.5 +D12</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q5 = 11, </v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q12" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q5 = 11.333, </v>
       </c>
-      <c r="R12" t="str">
-        <f t="shared" si="3"/>
+      <c r="S12" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q4', </v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1234,53 +1246,55 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G13" si="11">E13+0.5</f>
         <v>15.5</v>
       </c>
-      <c r="H13" t="str">
-        <f>A13&amp;" ~ unif("&amp;F13&amp;", "&amp;G13&amp;");"</f>
-        <v>Q6 ~ unif(12.5, 15.5);</v>
+      <c r="H13" t="s">
+        <v>60</v>
       </c>
       <c r="I13" t="str">
-        <f>"real "&amp;A13&amp;";"</f>
-        <v>real Q6;</v>
+        <f t="shared" si="2"/>
+        <v>Q6 ~ uniform(12, 15.5);</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
+        <v>real Q6;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_6;</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>53</v>
       </c>
-      <c r="M13">
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <f>(E13-D13)/1.5 +D13</f>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q6 = 14, </v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q6 = 14.333, </v>
       </c>
-      <c r="R13" t="str">
-        <f t="shared" si="3"/>
+      <c r="S13" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q5', </v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1297,50 +1311,50 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15.5</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
-      <c r="H14" t="str">
-        <f>A14&amp;" ~ unif("&amp;F14&amp;", "&amp;G14&amp;");"</f>
-        <v>Q7 ~ unif(15.5, 25);</v>
-      </c>
       <c r="I14" t="str">
-        <f>"real "&amp;A14&amp;";"</f>
-        <v>real Q7;</v>
+        <f t="shared" si="2"/>
+        <v>Q7 ~ uniform(15.5, 25);</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
+        <v>real Q7;</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_7;</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>21</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" si="1"/>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Q7 = 20, </v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q7 = 21, </v>
       </c>
-      <c r="R14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S14" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q6', </v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1362,44 +1376,44 @@
       <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="H15" t="str">
-        <f>A15&amp;" ~ unif("&amp;F15&amp;", "&amp;G15&amp;");"</f>
-        <v>V1 ~ unif(0, 0.1);</v>
-      </c>
       <c r="I15" t="str">
-        <f>"real "&amp;A15&amp;";"</f>
-        <v>real V1;</v>
+        <f t="shared" si="2"/>
+        <v>V1 ~ uniform(0, 0.1);</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
+        <v>real V1;</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_1;</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>54</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" si="1"/>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V1 = 0, </v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q15" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V1 = 0, </v>
       </c>
-      <c r="R15" t="str">
-        <f t="shared" si="3"/>
+      <c r="S15" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q7', </v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1422,44 +1436,44 @@
       <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H16" t="str">
-        <f>A16&amp;" ~ unif("&amp;F16&amp;", "&amp;G16&amp;");"</f>
-        <v>V2 ~ unif(0.1, 0.5);</v>
-      </c>
       <c r="I16" t="str">
-        <f>"real "&amp;A16&amp;";"</f>
-        <v>real V2;</v>
+        <f t="shared" si="2"/>
+        <v>V2 ~ uniform(0.1, 0.5);</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
+        <v>real V2;</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_2;</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.3</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.4</v>
       </c>
-      <c r="O16" t="str">
-        <f t="shared" si="1"/>
+      <c r="P16" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V2 = 0.3, </v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q16" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V2 = 0.4, </v>
       </c>
-      <c r="R16" t="str">
-        <f t="shared" si="3"/>
+      <c r="S16" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V1', </v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1482,44 +1496,44 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="str">
-        <f>A17&amp;" ~ unif("&amp;F17&amp;", "&amp;G17&amp;");"</f>
-        <v>V3 ~ unif(0.5, 1);</v>
-      </c>
       <c r="I17" t="str">
-        <f>"real "&amp;A17&amp;";"</f>
-        <v>real V3;</v>
+        <f t="shared" si="2"/>
+        <v>V3 ~ uniform(0.5, 1);</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
+        <v>real V3;</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_3;</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>50</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.7</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.8</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="1"/>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V3 = 0.7, </v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q17" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V3 = 0.8, </v>
       </c>
-      <c r="R17" t="str">
-        <f t="shared" si="3"/>
+      <c r="S17" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V2', </v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1541,44 +1555,44 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" t="str">
-        <f>A18&amp;" ~ unif("&amp;F18&amp;", "&amp;G18&amp;");"</f>
-        <v>V4 ~ unif(1, 3);</v>
-      </c>
       <c r="I18" t="str">
-        <f>"real "&amp;A18&amp;";"</f>
-        <v>real V4;</v>
+        <f t="shared" si="2"/>
+        <v>V4 ~ uniform(1, 3);</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
+        <v>real V4;</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_4;</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.5</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" si="1"/>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V4 = 2, </v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q18" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V4 = 2.5, </v>
       </c>
-      <c r="R18" t="str">
-        <f t="shared" si="3"/>
+      <c r="S18" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V3', </v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1600,55 +1614,55 @@
       <c r="G19">
         <v>7</v>
       </c>
-      <c r="H19" t="str">
-        <f>A19&amp;" ~ unif("&amp;F19&amp;", "&amp;G19&amp;");"</f>
-        <v>V5 ~ unif(3, 7);</v>
-      </c>
       <c r="I19" t="str">
-        <f>"real "&amp;A19&amp;";"</f>
-        <v>real V5;</v>
+        <f t="shared" si="2"/>
+        <v>V5 ~ uniform(3, 7);</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
+        <v>real V5;</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_5;</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>52</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f>(G19-F19)/2 +F19</f>
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" si="1"/>
+      <c r="P19" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V5 = 5, </v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q19" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V5 = 6, </v>
       </c>
-      <c r="R19" t="str">
-        <f t="shared" si="3"/>
+      <c r="S19" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V4', </v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O22" t="str">
-        <f>CONCATENATE("sigma = 10, binge = 6, ", O3,O4, O5, O6, O7, O8, O9, O10, O11, O12, O13, O14, O15, O16, O17, O18, O19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.5, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
-      </c>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P22" t="str">
         <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.192, F3 = 0.767, F4 = 2.667, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
-      </c>
-      <c r="R22" t="str">
-        <f>CONCATENATE(R3,R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19)</f>
+        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
+      </c>
+      <c r="Q22" t="str">
+        <f>CONCATENATE("sigma = 12, binge = 8, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
+        <v xml:space="preserve">sigma = 12, binge = 8, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
+      </c>
+      <c r="S22" t="str">
+        <f>CONCATENATE(S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
         <v xml:space="preserve">'F1', 'F2', 'F3', 'F4', 'F5', 'F6', 'Q1', 'Q2', 'Q3', 'Q4', 'Q5', 'Q6', 'Q7', 'V1', 'V2', 'V3', 'V4', </v>
       </c>
     </row>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfdm1m17\git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejjpfd\AppData\Local\0 git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Never</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>starting_value2</t>
+  </si>
+  <si>
+    <t>changed?</t>
+  </si>
+  <si>
+    <t>Y: chains were stuck at minimum (2)</t>
+  </si>
+  <si>
+    <t>Y: chains were stuck at minimum (12.5)</t>
   </si>
 </sst>
 </file>
@@ -515,22 +524,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -550,28 +559,31 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -594,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -618,46 +630,46 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-      <c r="H3" t="str">
-        <f>A3&amp;" ~ unif("&amp;F3&amp;", "&amp;G3&amp;");"</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I19" si="0">A3&amp;" ~ unif("&amp;F3&amp;", "&amp;G3&amp;");"</f>
         <v>F2 ~ unif(0.1, 0.5);</v>
       </c>
-      <c r="I3" t="str">
-        <f>"real "&amp;A3&amp;";"</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J19" si="1">"real "&amp;A3&amp;";"</f>
         <v>real F2;</v>
       </c>
-      <c r="J3" t="str">
-        <f>"vector[N] "&amp;"audit"&amp;K3&amp;"_"&amp;L3&amp;";"</f>
+      <c r="K3" t="str">
+        <f>"vector[N] "&amp;"audit"&amp;L3&amp;"_"&amp;M3&amp;";"</f>
         <v>vector[N] audit1_2;</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>(E3-D3)/2 +D3</f>
         <v>0.17260273972602741</v>
       </c>
-      <c r="N3">
-        <f>(E3-D3)/1.5 +D3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="2">(E3-D3)/1.5 +D3</f>
         <v>0.19178082191780821</v>
-      </c>
-      <c r="O3" t="str">
-        <f>$A3&amp;" = "&amp;ROUND(M3, 3)&amp;", "</f>
-        <v xml:space="preserve">F2 = 0.173, </v>
       </c>
       <c r="P3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(N3, 3)&amp;", "</f>
+        <v xml:space="preserve">F2 = 0.173, </v>
+      </c>
+      <c r="Q3" t="str">
+        <f>$A3&amp;" = "&amp;ROUND(O3, 3)&amp;", "</f>
         <v xml:space="preserve">F2 = 0.192, </v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>"'"&amp;A2&amp;"', "</f>
         <v xml:space="preserve">'F1', </v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -679,48 +691,48 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="str">
-        <f>A4&amp;" ~ unif("&amp;F4&amp;", "&amp;G4&amp;");"</f>
-        <v>F3 ~ unif(0.5, 2);</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="str">
-        <f>"real "&amp;A4&amp;";"</f>
+        <f t="shared" si="0"/>
+        <v>F3 ~ unif(0.5, 1.5);</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
         <v>real F3;</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J19" si="0">"vector[N] "&amp;"audit"&amp;K4&amp;"_"&amp;L4&amp;";"</f>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K19" si="3">"vector[N] "&amp;"audit"&amp;L4&amp;"_"&amp;M4&amp;";"</f>
         <v>vector[N] audit1_3;</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>(E4-D4)/2 +D4</f>
         <v>0.69041095890410964</v>
       </c>
-      <c r="N4">
-        <f>(E4-D4)/1.5 +D4</f>
+      <c r="O4">
+        <f t="shared" si="2"/>
         <v>0.76712328767123283</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O19" si="1">$A4&amp;" = "&amp;ROUND(M4, 3)&amp;", "</f>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P19" si="4">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.69, </v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P19" si="2">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q19" si="5">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.767, </v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R19" si="3">"'"&amp;A3&amp;"', "</f>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S19" si="6">"'"&amp;A3&amp;"', "</f>
         <v xml:space="preserve">'F2', </v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -737,51 +749,52 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
         <v>3.5</v>
       </c>
-      <c r="H5" t="str">
-        <f>A5&amp;" ~ unif("&amp;F5&amp;", "&amp;G5&amp;");"</f>
-        <v>F4 ~ unif(2, 3.5);</v>
+      <c r="H5" t="s">
+        <v>59</v>
       </c>
       <c r="I5" t="str">
-        <f>"real "&amp;A5&amp;";"</f>
+        <f t="shared" si="0"/>
+        <v>F4 ~ unif(1.5, 3.5);</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
         <v>real F4;</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_4;</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5">
-        <f>(E5-D5)/2 +D5</f>
+      <c r="N5">
+        <v>2.1</v>
+      </c>
+      <c r="O5">
         <v>2.5</v>
       </c>
-      <c r="N5">
-        <f>(E5-D5)/1.5 +D5</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
+      <c r="P5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">F4 = 2.1, </v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F4 = 2.5, </v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">F4 = 2.667, </v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="3"/>
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F3', </v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -803,46 +816,46 @@
       <c r="G6">
         <v>5.5</v>
       </c>
-      <c r="H6" t="str">
-        <f>A6&amp;" ~ unif("&amp;F6&amp;", "&amp;G6&amp;");"</f>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
         <v>F5 ~ unif(3.5, 5.5);</v>
       </c>
-      <c r="I6" t="str">
-        <f>"real "&amp;A6&amp;";"</f>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
         <v>real F5;</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_5;</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>(E6-D6)/2 +D6</f>
         <v>4.5</v>
       </c>
-      <c r="N6">
-        <f>(E6-D6)/1.5 +D6</f>
+      <c r="O6">
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
+      <c r="P6" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">F5 = 4.5, </v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F5 = 4.667, </v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="3"/>
+      <c r="S6" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F4', </v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -864,46 +877,46 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" t="str">
-        <f>A7&amp;" ~ unif("&amp;F7&amp;", "&amp;G7&amp;");"</f>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
         <v>F6 ~ unif(5.5, 7);</v>
       </c>
-      <c r="I7" t="str">
-        <f>"real "&amp;A7&amp;";"</f>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
         <v>real F6;</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit1_6;</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M13" si="4">(E7-D7)/2 +D7</f>
+      <c r="N7">
+        <f t="shared" ref="N7:N13" si="7">(E7-D7)/2 +D7</f>
         <v>6.5</v>
       </c>
-      <c r="N7">
-        <f>(E7-D7)/1.5 +D7</f>
+      <c r="O7">
+        <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="1"/>
+      <c r="P7" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">F6 = 6.5, </v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">F6 = 6.667, </v>
       </c>
-      <c r="R7" t="str">
-        <f t="shared" si="3"/>
+      <c r="S7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F5', </v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -923,49 +936,49 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="5">E8+0.5</f>
+        <f t="shared" ref="G8:G10" si="8">E8+0.5</f>
         <v>2.5</v>
       </c>
-      <c r="H8" t="str">
-        <f>A8&amp;" ~ unif("&amp;F8&amp;", "&amp;G8&amp;");"</f>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
         <v>Q1 ~ unif(1, 2.5);</v>
       </c>
-      <c r="I8" t="str">
-        <f>"real "&amp;A8&amp;";"</f>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
         <v>real Q1;</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_1;</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="M8">
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="N8">
-        <f>(E8-D8)/1.5 +D8</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q1 = 1.5, </v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q1 = 1.667, </v>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="3"/>
+      <c r="S8" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'F6', </v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -982,53 +995,53 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="6">D9-0.5</f>
+        <f t="shared" ref="F9:F10" si="9">D9-0.5</f>
         <v>2.5</v>
       </c>
       <c r="G9">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2 ~ unif(2.5, 4.5);</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>real Q2;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>vector[N] audit2_2;</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Q2 = 3.5, </v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="H9" t="str">
-        <f>A9&amp;" ~ unif("&amp;F9&amp;", "&amp;G9&amp;");"</f>
-        <v>Q2 ~ unif(2.5, 4.5);</v>
-      </c>
-      <c r="I9" t="str">
-        <f>"real "&amp;A9&amp;";"</f>
-        <v>real Q2;</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>vector[N] audit2_2;</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <f>(E9-D9)/1.5 +D9</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Q2 = 3.5, </v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve">Q2 = 3.667, </v>
       </c>
-      <c r="R9" t="str">
-        <f t="shared" si="3"/>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q1', </v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1045,53 +1058,53 @@
         <v>6</v>
       </c>
       <c r="F10">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Q3 ~ unif(4.5, 6.5);</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>real Q3;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>vector[N] audit2_3;</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Q3 = 5.5, </v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Q3 = 5.667, </v>
+      </c>
+      <c r="S10" t="str">
         <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="H10" t="str">
-        <f>A10&amp;" ~ unif("&amp;F10&amp;", "&amp;G10&amp;");"</f>
-        <v>Q3 ~ unif(4.5, 6.5);</v>
-      </c>
-      <c r="I10" t="str">
-        <f>"real "&amp;A10&amp;";"</f>
-        <v>real Q3;</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>vector[N] audit2_3;</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N10">
-        <f>(E10-D10)/1.5 +D10</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Q3 = 5.5, </v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Q3 = 5.667, </v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">'Q2', </v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1115,46 +1128,46 @@
         <f>E11+0.5</f>
         <v>9.5</v>
       </c>
-      <c r="H11" t="str">
-        <f>A11&amp;" ~ unif("&amp;F11&amp;", "&amp;G11&amp;");"</f>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
         <v>Q4 ~ unif(6.5, 9.5);</v>
       </c>
-      <c r="I11" t="str">
-        <f>"real "&amp;A11&amp;";"</f>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
         <v>real Q4;</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_4;</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <f>(E11-D11)/1.5 +D11</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q4 = 8, </v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q11" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q4 = 8.333, </v>
       </c>
-      <c r="R11" t="str">
-        <f t="shared" si="3"/>
+      <c r="S11" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q3', </v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1171,53 +1184,52 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="7">D12-0.5</f>
+        <f t="shared" ref="F12:F14" si="10">D12-0.5</f>
         <v>9.5</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G13" si="8">E12+0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="H12" t="str">
-        <f>A12&amp;" ~ unif("&amp;F12&amp;", "&amp;G12&amp;");"</f>
-        <v>Q5 ~ unif(9.5, 12.5);</v>
+        <v>12</v>
       </c>
       <c r="I12" t="str">
-        <f>"real "&amp;A12&amp;";"</f>
+        <f t="shared" si="0"/>
+        <v>Q5 ~ unif(9.5, 12);</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
         <v>real Q5;</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_5;</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="M12">
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f>(E12-D12)/1.5 +D12</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q5 = 11, </v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q12" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q5 = 11.333, </v>
       </c>
-      <c r="R12" t="str">
-        <f t="shared" si="3"/>
+      <c r="S12" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q4', </v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1234,53 +1246,55 @@
         <v>15</v>
       </c>
       <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G12:G13" si="11">E13+0.5</f>
+        <v>15.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Q6 ~ unif(12, 15.5);</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>real Q6;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>vector[N] audit2_6;</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="8"/>
-        <v>15.5</v>
-      </c>
-      <c r="H13" t="str">
-        <f>A13&amp;" ~ unif("&amp;F13&amp;", "&amp;G13&amp;");"</f>
-        <v>Q6 ~ unif(12.5, 15.5);</v>
-      </c>
-      <c r="I13" t="str">
-        <f>"real "&amp;A13&amp;";"</f>
-        <v>real Q6;</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>vector[N] audit2_6;</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <f>(E13-D13)/1.5 +D13</f>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Q6 = 14, </v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q6 = 14.333, </v>
       </c>
-      <c r="R13" t="str">
-        <f t="shared" si="3"/>
+      <c r="S13" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q5', </v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1297,50 +1311,50 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15.5</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
-      <c r="H14" t="str">
-        <f>A14&amp;" ~ unif("&amp;F14&amp;", "&amp;G14&amp;");"</f>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
         <v>Q7 ~ unif(15.5, 25);</v>
       </c>
-      <c r="I14" t="str">
-        <f>"real "&amp;A14&amp;";"</f>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
         <v>real Q7;</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit2_7;</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>21</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" si="1"/>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Q7 = 20, </v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Q7 = 21, </v>
       </c>
-      <c r="R14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S14" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q6', </v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1362,44 +1376,44 @@
       <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="H15" t="str">
-        <f>A15&amp;" ~ unif("&amp;F15&amp;", "&amp;G15&amp;");"</f>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
         <v>V1 ~ unif(0, 0.1);</v>
       </c>
-      <c r="I15" t="str">
-        <f>"real "&amp;A15&amp;";"</f>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
         <v>real V1;</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_1;</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>54</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" si="1"/>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V1 = 0, </v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q15" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V1 = 0, </v>
       </c>
-      <c r="R15" t="str">
-        <f t="shared" si="3"/>
+      <c r="S15" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'Q7', </v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1422,44 +1436,44 @@
       <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H16" t="str">
-        <f>A16&amp;" ~ unif("&amp;F16&amp;", "&amp;G16&amp;");"</f>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
         <v>V2 ~ unif(0.1, 0.5);</v>
       </c>
-      <c r="I16" t="str">
-        <f>"real "&amp;A16&amp;";"</f>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
         <v>real V2;</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_2;</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.3</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.4</v>
       </c>
-      <c r="O16" t="str">
-        <f t="shared" si="1"/>
+      <c r="P16" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V2 = 0.3, </v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q16" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V2 = 0.4, </v>
       </c>
-      <c r="R16" t="str">
-        <f t="shared" si="3"/>
+      <c r="S16" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V1', </v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1482,44 +1496,44 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="str">
-        <f>A17&amp;" ~ unif("&amp;F17&amp;", "&amp;G17&amp;");"</f>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
         <v>V3 ~ unif(0.5, 1);</v>
       </c>
-      <c r="I17" t="str">
-        <f>"real "&amp;A17&amp;";"</f>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
         <v>real V3;</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_3;</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>50</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.7</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.8</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="1"/>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V3 = 0.7, </v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q17" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V3 = 0.8, </v>
       </c>
-      <c r="R17" t="str">
-        <f t="shared" si="3"/>
+      <c r="S17" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V2', </v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1541,44 +1555,44 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" t="str">
-        <f>A18&amp;" ~ unif("&amp;F18&amp;", "&amp;G18&amp;");"</f>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
         <v>V4 ~ unif(1, 3);</v>
       </c>
-      <c r="I18" t="str">
-        <f>"real "&amp;A18&amp;";"</f>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
         <v>real V4;</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_4;</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.5</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" si="1"/>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V4 = 2, </v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q18" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V4 = 2.5, </v>
       </c>
-      <c r="R18" t="str">
-        <f t="shared" si="3"/>
+      <c r="S18" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V3', </v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1600,55 +1614,55 @@
       <c r="G19">
         <v>7</v>
       </c>
-      <c r="H19" t="str">
-        <f>A19&amp;" ~ unif("&amp;F19&amp;", "&amp;G19&amp;");"</f>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
         <v>V5 ~ unif(3, 7);</v>
       </c>
-      <c r="I19" t="str">
-        <f>"real "&amp;A19&amp;";"</f>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
         <v>real V5;</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
         <v>vector[N] audit3_5;</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>52</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f>(G19-F19)/2 +F19</f>
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" si="1"/>
+      <c r="P19" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">V5 = 5, </v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q19" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">V5 = 6, </v>
       </c>
-      <c r="R19" t="str">
-        <f t="shared" si="3"/>
+      <c r="S19" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">'V4', </v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O22" t="str">
-        <f>CONCATENATE("sigma = 10, binge = 6, ", O3,O4, O5, O6, O7, O8, O9, O10, O11, O12, O13, O14, O15, O16, O17, O18, O19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.5, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
-      </c>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P22" t="str">
         <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.192, F3 = 0.767, F4 = 2.667, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
-      </c>
-      <c r="R22" t="str">
-        <f>CONCATENATE(R3,R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19)</f>
+        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
+      </c>
+      <c r="Q22" t="str">
+        <f>CONCATENATE("sigma = 12, binge = 8, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
+        <v xml:space="preserve">sigma = 12, binge = 8, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
+      </c>
+      <c r="S22" t="str">
+        <f>CONCATENATE(S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
         <v xml:space="preserve">'F1', 'F2', 'F3', 'F4', 'F5', 'F6', 'Q1', 'Q2', 'Q3', 'Q4', 'Q5', 'Q6', 'Q7', 'V1', 'V2', 'V3', 'V4', </v>
       </c>
     </row>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,14 +752,14 @@
         <v>1.5</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>F4 ~ uniform(1.5, 3.5);</v>
+        <v>F4 ~ uniform(1.5, 3);</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -811,14 +811,14 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>F5 ~ uniform(3.5, 5.5);</v>
+        <v>F5 ~ uniform(3, 5);</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -872,14 +872,14 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>F6 ~ uniform(5.5, 7);</v>
+        <v>F6 ~ uniform(5, 7);</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Never</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Y: chains were stuck at minimum (12.5)</t>
+  </si>
+  <si>
+    <t>starting_value3</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -582,8 +585,11 @@
       <c r="O1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -606,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -656,20 +662,28 @@
         <f t="shared" ref="O3:O13" si="1">(E3-D3)/1.5 +D3</f>
         <v>0.19178082191780821</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P3">
+        <f>E3-((E3-D3)/1.7)</f>
+        <v>0.16244963738920226</v>
+      </c>
+      <c r="Q3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(N3, 3)&amp;", "</f>
         <v xml:space="preserve">F2 = 0.173, </v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(O3, 3)&amp;", "</f>
         <v xml:space="preserve">F2 = 0.192, </v>
       </c>
       <c r="S3" t="str">
+        <f>$A3&amp;" = "&amp;ROUND(P3, 3)&amp;", "</f>
+        <v xml:space="preserve">F2 = 0.162, </v>
+      </c>
+      <c r="T3" t="str">
         <f>"'"&amp;A2&amp;"', "</f>
         <v xml:space="preserve">'F1', </v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -719,20 +733,28 @@
         <f t="shared" si="1"/>
         <v>0.76712328767123283</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P19" si="4">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P19" si="4">E4-((E4-D4)/1.7)</f>
+        <v>0.64979854955680905</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q19" si="5">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.69, </v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q19" si="5">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R19" si="6">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
         <v xml:space="preserve">F3 = 0.767, </v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S19" si="6">"'"&amp;A3&amp;"', "</f>
+        <f t="shared" ref="S4:S19" si="7">$A4&amp;" = "&amp;ROUND(P4, 3)&amp;", "</f>
+        <v xml:space="preserve">F3 = 0.65, </v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T19" si="8">"'"&amp;A3&amp;"', "</f>
         <v xml:space="preserve">'F2', </v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -781,20 +803,28 @@
       <c r="O5">
         <v>2.5</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">F4 = 2.1, </v>
+        <v>2.4117647058823528</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">F4 = 2.1, </v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">F4 = 2.5, </v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F4 = 2.412, </v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'F3', </v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -842,20 +872,28 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">F5 = 4.5, </v>
+        <v>4.4117647058823533</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">F5 = 4.5, </v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">F5 = 4.667, </v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F5 = 4.412, </v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'F4', </v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -896,27 +934,35 @@
         <v>53</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N13" si="7">(E7-D7)/2 +D7</f>
+        <f t="shared" ref="N7:N13" si="9">(E7-D7)/2 +D7</f>
         <v>6.5</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">F6 = 6.5, </v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">F6 = 6.5, </v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">F6 = 6.667, </v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F6 = 6.412, </v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'F5', </v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -936,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="8">E8+0.5</f>
+        <f t="shared" ref="G8:G10" si="10">E8+0.5</f>
         <v>2.5</v>
       </c>
       <c r="I8" t="str">
@@ -958,27 +1004,35 @@
         <v>54</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q1 = 1.5, </v>
+        <v>1.4117647058823528</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q1 = 1.5, </v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q1 = 1.667, </v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q1 = 1.412, </v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'F6', </v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -995,11 +1049,11 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="9">D9-0.5</f>
+        <f t="shared" ref="F9:F10" si="11">D9-0.5</f>
         <v>2.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="I9" t="str">
@@ -1021,27 +1075,35 @@
         <v>49</v>
       </c>
       <c r="N9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q2 = 3.5, </v>
+        <v>3.4117647058823528</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q2 = 3.5, </v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q2 = 3.667, </v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q2 = 3.412, </v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q1', </v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1058,11 +1120,11 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5</v>
       </c>
       <c r="I10" t="str">
@@ -1084,27 +1146,35 @@
         <v>50</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q3 = 5.5, </v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q3 = 5.5, </v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q3 = 5.667, </v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q3 = 5.412, </v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q2', </v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1147,27 +1217,35 @@
         <v>51</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q4 = 8, </v>
+        <v>7.8235294117647056</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q4 = 8, </v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q4 = 8.333, </v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q4 = 7.824, </v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q3', </v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1184,15 +1262,15 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="10">D12-0.5</f>
+        <f t="shared" ref="F12:F14" si="12">D12-0.5</f>
         <v>9.5</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>Q5 ~ uniform(9.5, 12);</v>
+        <v>Q5 ~ uniform(9.5, 11.5);</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1209,27 +1287,35 @@
         <v>52</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
         <v>11.333333333333334</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q5 = 11, </v>
+        <v>10.823529411764707</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q5 = 11, </v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q5 = 11.333, </v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q5 = 10.824, </v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q4', </v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1246,10 +1332,10 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="11">E13+0.5</f>
+        <f t="shared" ref="G13" si="13">E13+0.5</f>
         <v>15.5</v>
       </c>
       <c r="H13" t="s">
@@ -1257,7 +1343,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>Q6 ~ uniform(12, 15.5);</v>
+        <v>Q6 ~ uniform(11.5, 15.5);</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1274,27 +1360,35 @@
         <v>53</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
         <v>14.333333333333334</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Q6 = 14, </v>
+        <v>13.823529411764707</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q6 = 14, </v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q6 = 14.333, </v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q6 = 13.824, </v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q5', </v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1311,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
       <c r="G14">
@@ -1341,20 +1435,27 @@
       <c r="O14">
         <v>21</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Q7 = 20, </v>
+      <c r="P14">
+        <v>19</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">Q7 = 20, </v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Q7 = 21, </v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q7 = 19, </v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q6', </v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1400,20 +1501,27 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">V1 = 0, </v>
+      <c r="P15">
+        <v>0.5</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">V1 = 0, </v>
       </c>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V1 = 0, </v>
+      </c>
       <c r="S15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V1 = 0.5, </v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'Q7', </v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1460,20 +1568,27 @@
       <c r="O16">
         <v>0.4</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">V2 = 0.3, </v>
+      <c r="P16">
+        <v>0.25</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">V2 = 0.3, </v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">V2 = 0.4, </v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V2 = 0.25, </v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'V1', </v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1520,20 +1635,27 @@
       <c r="O17">
         <v>0.8</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">V3 = 0.7, </v>
+      <c r="P17">
+        <v>0.75</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">V3 = 0.7, </v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">V3 = 0.8, </v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V3 = 0.75, </v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'V2', </v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1579,20 +1701,27 @@
       <c r="O18">
         <v>2.5</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">V4 = 2, </v>
+      <c r="P18">
+        <v>1.9</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">V4 = 2, </v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">V4 = 2.5, </v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V4 = 1.9, </v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'V3', </v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1639,30 +1768,41 @@
       <c r="O19">
         <v>6</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">V5 = 5, </v>
+      <c r="P19">
+        <v>5.5</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">V5 = 5, </v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">V5 = 6, </v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V5 = 5.5, </v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'V4', </v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P22" t="str">
-        <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q22" t="str">
+        <f>CONCATENATE("sigma = 10, binge = 6, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
         <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
       </c>
-      <c r="Q22" t="str">
-        <f>CONCATENATE("sigma = 12, binge = 8, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
-        <v xml:space="preserve">sigma = 12, binge = 8, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
+      <c r="R22" t="str">
+        <f>CONCATENATE("sigma = 12, binge = 5, ", R3,R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19)</f>
+        <v xml:space="preserve">sigma = 12, binge = 5, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
       </c>
       <c r="S22" t="str">
-        <f>CONCATENATE(S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
+        <f>CONCATENATE("sigma = 8, binge = 7, ", S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
+        <v xml:space="preserve">sigma = 8, binge = 7, F2 = 0.162, F3 = 0.65, F4 = 2.412, F5 = 4.412, F6 = 6.412, Q1 = 1.412, Q2 = 3.412, Q3 = 5.412, Q4 = 7.824, Q5 = 10.824, Q6 = 13.824, Q7 = 19, V1 = 0.5, V2 = 0.25, V3 = 0.75, V4 = 1.9, V5 = 5.5, </v>
+      </c>
+      <c r="T22" t="str">
+        <f>CONCATENATE(T3,T4, T5, T6, T7, T8, T9, T10, T11, T12, T13, T14, T15, T16, T17, T18, T19)</f>
         <v xml:space="preserve">'F1', 'F2', 'F3', 'F4', 'F5', 'F6', 'Q1', 'Q2', 'Q3', 'Q4', 'Q5', 'Q6', 'Q7', 'V1', 'V2', 'V3', 'V4', </v>
       </c>
     </row>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +540,7 @@
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -734,7 +735,7 @@
         <v>0.76712328767123283</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P19" si="4">E4-((E4-D4)/1.7)</f>
+        <f t="shared" ref="P4:P13" si="4">E4-((E4-D4)/1.7)</f>
         <v>0.64979854955680905</v>
       </c>
       <c r="Q4" t="str">
@@ -1502,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
@@ -1514,7 +1515,7 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">V1 = 0.5, </v>
+        <v xml:space="preserve">V1 = 0.05, </v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="8"/>
@@ -1799,7 +1800,7 @@
       </c>
       <c r="S22" t="str">
         <f>CONCATENATE("sigma = 8, binge = 7, ", S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
-        <v xml:space="preserve">sigma = 8, binge = 7, F2 = 0.162, F3 = 0.65, F4 = 2.412, F5 = 4.412, F6 = 6.412, Q1 = 1.412, Q2 = 3.412, Q3 = 5.412, Q4 = 7.824, Q5 = 10.824, Q6 = 13.824, Q7 = 19, V1 = 0.5, V2 = 0.25, V3 = 0.75, V4 = 1.9, V5 = 5.5, </v>
+        <v xml:space="preserve">sigma = 8, binge = 7, F2 = 0.162, F3 = 0.65, F4 = 2.412, F5 = 4.412, F6 = 6.412, Q1 = 1.412, Q2 = 3.412, Q3 = 5.412, Q4 = 7.824, Q5 = 10.824, Q6 = 13.824, Q7 = 19, V1 = 0.05, V2 = 0.25, V3 = 0.75, V4 = 1.9, V5 = 5.5, </v>
       </c>
       <c r="T22" t="str">
         <f>CONCATENATE(T3,T4, T5, T6, T7, T8, T9, T10, T11, T12, T13, T14, T15, T16, T17, T18, T19)</f>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Never</t>
   </si>
@@ -107,9 +108,6 @@
     <t>max_prio</t>
   </si>
   <si>
-    <t>define_priors</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -200,16 +198,28 @@
     <t>starting_value2</t>
   </si>
   <si>
-    <t>changed?</t>
-  </si>
-  <si>
-    <t>Y: chains were stuck at minimum (2)</t>
-  </si>
-  <si>
-    <t>Y: chains were stuck at minimum (12.5)</t>
-  </si>
-  <si>
     <t>starting_value3</t>
+  </si>
+  <si>
+    <t>define_uniform_priors</t>
+  </si>
+  <si>
+    <t>define_prior_beta1</t>
+  </si>
+  <si>
+    <t>define_prior_beta2</t>
+  </si>
+  <si>
+    <t>declare_starting_value1</t>
+  </si>
+  <si>
+    <t>declare_starting_value2</t>
+  </si>
+  <si>
+    <t>declare_starting_value3</t>
+  </si>
+  <si>
+    <t>define_modified_param</t>
   </si>
 </sst>
 </file>
@@ -527,23 +537,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" customWidth="1"/>
+    <col min="22" max="25" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -566,19 +579,19 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
       </c>
       <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
         <v>56</v>
@@ -589,10 +602,34 @@
       <c r="P1" t="s">
         <v>61</v>
       </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -613,9 +650,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -637,56 +674,80 @@
       <c r="G3">
         <v>0.5</v>
       </c>
+      <c r="H3" t="str">
+        <f>$A3&amp;" ~ uniform("&amp;$F3&amp;", "&amp;$G3&amp;");"</f>
+        <v>F2 ~ uniform(0.1, 0.5);</v>
+      </c>
       <c r="I3" t="str">
-        <f>A3&amp;" ~ uniform("&amp;F3&amp;", "&amp;G3&amp;");"</f>
-        <v>F2 ~ uniform(0.1, 0.5);</v>
+        <f t="shared" ref="I3:I19" si="0">"real "&amp;A3&amp;";"</f>
+        <v>real F2;</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J19" si="0">"real "&amp;A3&amp;";"</f>
-        <v>real F2;</v>
-      </c>
-      <c r="K3" t="str">
-        <f>"vector[N] "&amp;"audit"&amp;L3&amp;"_"&amp;M3&amp;";"</f>
+        <f>"vector[N] "&amp;"audit"&amp;K3&amp;"_"&amp;L3&amp;";"</f>
         <v>vector[N] audit1_2;</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3">
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
         <f>(E3-D3)/2 +D3</f>
         <v>0.17260273972602741</v>
       </c>
+      <c r="N3">
+        <f>(E3-D3)/1.5 +D3</f>
+        <v>0.19178082191780821</v>
+      </c>
       <c r="O3">
-        <f t="shared" ref="O3:O13" si="1">(E3-D3)/1.5 +D3</f>
-        <v>0.19178082191780821</v>
-      </c>
-      <c r="P3">
-        <f>E3-((E3-D3)/1.7)</f>
+        <f t="shared" ref="O3:O13" si="1">E3-((E3-D3)/1.7)</f>
         <v>0.16244963738920226</v>
+      </c>
+      <c r="P3" t="str">
+        <f>$A3&amp;" = "&amp;ROUND(M3, 3)&amp;", "</f>
+        <v xml:space="preserve">F2 = 0.173, </v>
       </c>
       <c r="Q3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(N3, 3)&amp;", "</f>
-        <v xml:space="preserve">F2 = 0.173, </v>
+        <v xml:space="preserve">F2 = 0.192, </v>
       </c>
       <c r="R3" t="str">
         <f>$A3&amp;" = "&amp;ROUND(O3, 3)&amp;", "</f>
-        <v xml:space="preserve">F2 = 0.192, </v>
+        <v xml:space="preserve">F2 = 0.162, </v>
       </c>
       <c r="S3" t="str">
-        <f>$A3&amp;" = "&amp;ROUND(P3, 3)&amp;", "</f>
-        <v xml:space="preserve">F2 = 0.162, </v>
+        <f t="shared" ref="S3:S19" si="2">"'"&amp;A2&amp;"', "</f>
+        <v xml:space="preserve">'F1', </v>
       </c>
       <c r="T3" t="str">
-        <f>"'"&amp;A2&amp;"', "</f>
-        <v xml:space="preserve">'F1', </v>
+        <f>$A3&amp;"hyper ~ beta(2, 2);"</f>
+        <v>F2hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U3" t="str">
+        <f>"real "&amp;$A3&amp;" =  (("&amp;$A3&amp;"hyper * "&amp;($G3 - $F3)&amp;") + "&amp;$F3&amp;");"</f>
+        <v>real F2 =  ((F2hyper * 0.4) + 0.1);</v>
+      </c>
+      <c r="V3" t="str">
+        <f>$A3&amp;"hyper = "&amp;ROUND(((M3 - $F3)/($G3 - $F3)), 3)&amp;", "</f>
+        <v xml:space="preserve">F2hyper = 0.182, </v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:X3" si="3">$A3&amp;"hyper = "&amp;ROUND(((N3 - $F3)/($G3 - $F3)), 3)&amp;", "</f>
+        <v xml:space="preserve">F2hyper = 0.229, </v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">F2hyper = 0.156, </v>
+      </c>
+      <c r="Y3" t="str">
+        <f>"real "&amp;$A3&amp;"hyper;"</f>
+        <v>real F2hyper;</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -708,56 +769,80 @@
       <c r="G4">
         <v>1.5</v>
       </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H19" si="4">A4&amp;" ~ uniform("&amp;F4&amp;", "&amp;G4&amp;");"</f>
+        <v>F3 ~ uniform(0.5, 1.5);</v>
+      </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I19" si="2">A4&amp;" ~ uniform("&amp;F4&amp;", "&amp;G4&amp;");"</f>
-        <v>F3 ~ uniform(0.5, 1.5);</v>
-      </c>
-      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>real F3;</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K19" si="3">"vector[N] "&amp;"audit"&amp;L4&amp;"_"&amp;M4&amp;";"</f>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J19" si="5">"vector[N] "&amp;"audit"&amp;K4&amp;"_"&amp;L4&amp;";"</f>
         <v>vector[N] audit1_3;</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4">
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4">
         <f>(E4-D4)/2 +D4</f>
         <v>0.69041095890410964</v>
       </c>
+      <c r="N4">
+        <f>(E4-D4)/1.5 +D4</f>
+        <v>0.76712328767123283</v>
+      </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>0.76712328767123283</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P13" si="4">E4-((E4-D4)/1.7)</f>
         <v>0.64979854955680905</v>
       </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P19" si="6">$A4&amp;" = "&amp;ROUND(M4, 3)&amp;", "</f>
+        <v xml:space="preserve">F3 = 0.69, </v>
+      </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q19" si="5">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
-        <v xml:space="preserve">F3 = 0.69, </v>
+        <f t="shared" ref="Q4:Q19" si="7">$A4&amp;" = "&amp;ROUND(N4, 3)&amp;", "</f>
+        <v xml:space="preserve">F3 = 0.767, </v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R19" si="6">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
-        <v xml:space="preserve">F3 = 0.767, </v>
+        <f t="shared" ref="R4:R19" si="8">$A4&amp;" = "&amp;ROUND(O4, 3)&amp;", "</f>
+        <v xml:space="preserve">F3 = 0.65, </v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S19" si="7">$A4&amp;" = "&amp;ROUND(P4, 3)&amp;", "</f>
-        <v xml:space="preserve">F3 = 0.65, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'F2', </v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T19" si="8">"'"&amp;A3&amp;"', "</f>
-        <v xml:space="preserve">'F2', </v>
+        <f t="shared" ref="T4:T19" si="9">$A4&amp;"hyper ~ beta(2, 2);"</f>
+        <v>F3hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U19" si="10">"real "&amp;$A4&amp;" =  (("&amp;$A4&amp;"hyper * "&amp;($G4 - $F4)&amp;") + "&amp;$F4&amp;");"</f>
+        <v>real F3 =  ((F3hyper * 1) + 0.5);</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V19" si="11">$A4&amp;"hyper = "&amp;ROUND(((M4 - $F4)/($G4 - $F4)), 3)&amp;", "</f>
+        <v xml:space="preserve">F3hyper = 0.19, </v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W19" si="12">$A4&amp;"hyper = "&amp;ROUND(((N4 - $F4)/($G4 - $F4)), 3)&amp;", "</f>
+        <v xml:space="preserve">F3hyper = 0.267, </v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X19" si="13">$A4&amp;"hyper = "&amp;ROUND(((O4 - $F4)/($G4 - $F4)), 3)&amp;", "</f>
+        <v xml:space="preserve">F3hyper = 0.15, </v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y19" si="14">"real "&amp;$A4&amp;"hyper;"</f>
+        <v>real F3hyper;</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -777,57 +862,78 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>59</v>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>F4 ~ uniform(1.5, 3);</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>F4 ~ uniform(1.5, 3);</v>
-      </c>
-      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>real F4;</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="3"/>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit1_4;</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>51</v>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>2.1</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.4117647058823528</v>
       </c>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">F4 = 2.1, </v>
+      </c>
       <c r="Q5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">F4 = 2.1, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F4 = 2.5, </v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">F4 = 2.5, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">F4 = 2.412, </v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">F4 = 2.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'F3', </v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'F3', </v>
+        <f t="shared" si="9"/>
+        <v>F4hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="10"/>
+        <v>real F4 =  ((F4hyper * 1.5) + 1.5);</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">F4hyper = 0.4, </v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">F4hyper = 0.667, </v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">F4hyper = 0.608, </v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="14"/>
+        <v>real F4hyper;</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -847,56 +953,80 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>F5 ~ uniform(3, 5);</v>
+      </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>F5 ~ uniform(3, 5);</v>
-      </c>
-      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>real F5;</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="3"/>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit1_5;</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6">
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
         <f>(E6-D6)/2 +D6</f>
         <v>4.5</v>
       </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N13" si="15">(E6-D6)/1.5 +D6</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
         <v>4.4117647058823533</v>
       </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">F5 = 4.5, </v>
+      </c>
       <c r="Q6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">F5 = 4.5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F5 = 4.667, </v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">F5 = 4.667, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">F5 = 4.412, </v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">F5 = 4.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'F4', </v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'F4', </v>
+        <f t="shared" si="9"/>
+        <v>F5hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="10"/>
+        <v>real F5 =  ((F5hyper * 2) + 3);</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">F5hyper = 0.75, </v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">F5hyper = 0.833, </v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">F5hyper = 0.706, </v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="14"/>
+        <v>real F5hyper;</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -916,56 +1046,80 @@
       <c r="G7">
         <v>7</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>F6 ~ uniform(5, 7);</v>
+      </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>F6 ~ uniform(5, 7);</v>
-      </c>
-      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>real F6;</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="3"/>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit1_6;</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>53</v>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M13" si="16">(E7-D7)/2 +D7</f>
+        <v>6.5</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N13" si="9">(E7-D7)/2 +D7</f>
-        <v>6.5</v>
+        <f t="shared" si="15"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
         <v>6.4117647058823533</v>
       </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">F6 = 6.5, </v>
+      </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">F6 = 6.5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">F6 = 6.667, </v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">F6 = 6.667, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">F6 = 6.412, </v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">F6 = 6.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'F5', </v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'F5', </v>
+        <f t="shared" si="9"/>
+        <v>F6hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="10"/>
+        <v>real F6 =  ((F6hyper * 2) + 5);</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">F6hyper = 0.75, </v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">F6hyper = 0.833, </v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">F6hyper = 0.706, </v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="14"/>
+        <v>real F6hyper;</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -983,59 +1137,83 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="10">E8+0.5</f>
+        <f t="shared" ref="G8:G10" si="17">E8+0.5</f>
         <v>2.5</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>Q1 ~ uniform(1, 2.5);</v>
+      </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>Q1 ~ uniform(1, 2.5);</v>
-      </c>
-      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>real Q1;</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="3"/>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_1;</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
-        <v>54</v>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666665</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
         <v>1.4117647058823528</v>
       </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q1 = 1.5, </v>
+      </c>
       <c r="Q8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q1 = 1.5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q1 = 1.667, </v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q1 = 1.667, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q1 = 1.412, </v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q1 = 1.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'F6', </v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'F6', </v>
+        <f t="shared" si="9"/>
+        <v>Q1hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q1 =  ((Q1hyper * 1.5) + 1);</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q1hyper = 0.333, </v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q1hyper = 0.444, </v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q1hyper = 0.275, </v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q1hyper;</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1050,63 +1228,87 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="11">D9-0.5</f>
+        <f t="shared" ref="F9:F10" si="18">D9-0.5</f>
         <v>2.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>Q2 ~ uniform(2.5, 4.5);</v>
+      </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>Q2 ~ uniform(2.5, 4.5);</v>
-      </c>
-      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>real Q2;</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="3"/>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_2;</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
-        <v>49</v>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="16"/>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
+        <f t="shared" si="15"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
         <v>3.4117647058823528</v>
       </c>
+      <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q2 = 3.5, </v>
+      </c>
       <c r="Q9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q2 = 3.5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q2 = 3.667, </v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q2 = 3.667, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q2 = 3.412, </v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q2 = 3.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q1', </v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q1', </v>
+        <f t="shared" si="9"/>
+        <v>Q2hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q2 =  ((Q2hyper * 2) + 2.5);</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q2hyper = 0.5, </v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q2hyper = 0.583, </v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q2hyper = 0.456, </v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q2hyper;</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1121,63 +1323,87 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.5</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>Q3 ~ uniform(4.5, 6.5);</v>
+      </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>Q3 ~ uniform(4.5, 6.5);</v>
-      </c>
-      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>real Q3;</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="3"/>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_3;</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
-        <v>50</v>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="16"/>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="9"/>
-        <v>5.5</v>
+        <f t="shared" si="15"/>
+        <v>5.666666666666667</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
         <v>5.4117647058823533</v>
       </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q3 = 5.5, </v>
+      </c>
       <c r="Q10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q3 = 5.5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q3 = 5.667, </v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q3 = 5.667, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q3 = 5.412, </v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q3 = 5.412, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q2', </v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q2', </v>
+        <f t="shared" si="9"/>
+        <v>Q3hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q3 =  ((Q3hyper * 2) + 4.5);</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q3hyper = 0.5, </v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q3hyper = 0.583, </v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q3hyper = 0.456, </v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q3hyper;</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1199,56 +1425,80 @@
         <f>E11+0.5</f>
         <v>9.5</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>Q4 ~ uniform(6.5, 9.5);</v>
+      </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>Q4 ~ uniform(6.5, 9.5);</v>
-      </c>
-      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>real Q4;</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_4;</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="N11">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="15"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
         <v>7.8235294117647056</v>
       </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q4 = 8, </v>
+      </c>
       <c r="Q11" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q4 = 8, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q4 = 8.333, </v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q4 = 8.333, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q4 = 7.824, </v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q4 = 7.824, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q3', </v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q3', </v>
+        <f t="shared" si="9"/>
+        <v>Q4hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q4 =  ((Q4hyper * 3) + 6.5);</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q4hyper = 0.5, </v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q4hyper = 0.611, </v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q4hyper = 0.441, </v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q4hyper;</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1263,62 +1513,86 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="12">D12-0.5</f>
+        <f t="shared" ref="F12:F14" si="19">D12-0.5</f>
         <v>9.5</v>
       </c>
       <c r="G12">
         <v>11.5</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Q5 ~ uniform(9.5, 11.5);</v>
+      </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>Q5 ~ uniform(9.5, 11.5);</v>
-      </c>
-      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>real Q5;</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="3"/>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_5;</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
-        <v>52</v>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="N12">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>11.333333333333334</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
         <v>10.823529411764707</v>
       </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q5 = 11, </v>
+      </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q5 = 11, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q5 = 11.333, </v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q5 = 11.333, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q5 = 10.824, </v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q5 = 10.824, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q4', </v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q4', </v>
+        <f t="shared" si="9"/>
+        <v>Q5hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q5 =  ((Q5hyper * 2) + 9.5);</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q5hyper = 0.75, </v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q5hyper = 0.917, </v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q5hyper = 0.662, </v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q5hyper;</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1333,65 +1607,86 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="13">E13+0.5</f>
+        <f t="shared" ref="G13" si="20">E13+0.5</f>
         <v>15.5</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>Q6 ~ uniform(10, 15.5);</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>Q6 ~ uniform(11.5, 15.5);</v>
-      </c>
-      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>real Q6;</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="3"/>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_6;</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
-        <v>53</v>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>14.333333333333334</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
         <v>13.823529411764707</v>
       </c>
+      <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q6 = 14, </v>
+      </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q6 = 14, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q6 = 14.333, </v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q6 = 14.333, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q6 = 13.824, </v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q6 = 13.824, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q5', </v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q5', </v>
+        <f t="shared" si="9"/>
+        <v>Q6hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q6 =  ((Q6hyper * 5.5) + 10);</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q6hyper = 0.727, </v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q6hyper = 0.788, </v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q6hyper = 0.695, </v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q6hyper;</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1406,59 +1701,83 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>15.5</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>Q7 ~ uniform(15.5, 25);</v>
+      </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>Q7 ~ uniform(15.5, 25);</v>
-      </c>
-      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>real Q7;</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="3"/>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit2_7;</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14">
-        <v>21</v>
-      </c>
-      <c r="P14">
         <v>19</v>
       </c>
+      <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Q7 = 20, </v>
+      </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Q7 = 20, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Q7 = 21, </v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">Q7 = 21, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Q7 = 19, </v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Q7 = 19, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q6', </v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q6', </v>
+        <f t="shared" si="9"/>
+        <v>Q7hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="10"/>
+        <v>real Q7 =  ((Q7hyper * 9.5) + 15.5);</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Q7hyper = 0.474, </v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Q7hyper = 0.579, </v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Q7hyper = 0.368, </v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="14"/>
+        <v>real Q7hyper;</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1478,53 +1797,77 @@
       <c r="G15">
         <v>0.1</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>V1 ~ uniform(0, 0.1);</v>
+      </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>V1 ~ uniform(0, 0.1);</v>
-      </c>
-      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>real V1;</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="3"/>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit3_1;</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
-        <v>54</v>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>1E-3</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
         <v>0.05</v>
       </c>
+      <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V1 = 0.001, </v>
+      </c>
       <c r="Q15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">V1 = 0, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V1 = 0.01, </v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">V1 = 0, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">V1 = 0.05, </v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">V1 = 0.05, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'Q7', </v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'Q7', </v>
+        <f t="shared" si="9"/>
+        <v>V1hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="10"/>
+        <v>real V1 =  ((V1hyper * 0.1) + 0);</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">V1hyper = 0.01, </v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">V1hyper = 0.1, </v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">V1hyper = 0.5, </v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="14"/>
+        <v>real V1hyper;</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1545,53 +1888,77 @@
       <c r="G16">
         <v>0.5</v>
       </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>V2 ~ uniform(0.1, 0.5);</v>
+      </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>V2 ~ uniform(0.1, 0.5);</v>
-      </c>
-      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>real V2;</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="3"/>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit3_2;</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="M16" t="s">
-        <v>49</v>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16">
+        <v>0.3</v>
       </c>
       <c r="N16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O16">
-        <v>0.4</v>
-      </c>
-      <c r="P16">
         <v>0.25</v>
       </c>
+      <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V2 = 0.3, </v>
+      </c>
       <c r="Q16" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">V2 = 0.3, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V2 = 0.4, </v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">V2 = 0.4, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">V2 = 0.25, </v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">V2 = 0.25, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'V1', </v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'V1', </v>
+        <f t="shared" si="9"/>
+        <v>V2hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="10"/>
+        <v>real V2 =  ((V2hyper * 0.4) + 0.1);</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">V2hyper = 0.5, </v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">V2hyper = 0.75, </v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">V2hyper = 0.375, </v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="14"/>
+        <v>real V2hyper;</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1612,53 +1979,77 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v>V3 ~ uniform(0.5, 1);</v>
+      </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>V3 ~ uniform(0.5, 1);</v>
-      </c>
-      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>real V3;</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="3"/>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit3_3;</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>50</v>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17">
+        <v>0.7</v>
       </c>
       <c r="N17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O17">
-        <v>0.8</v>
-      </c>
-      <c r="P17">
         <v>0.75</v>
       </c>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V3 = 0.7, </v>
+      </c>
       <c r="Q17" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">V3 = 0.7, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V3 = 0.8, </v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">V3 = 0.8, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">V3 = 0.75, </v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">V3 = 0.75, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'V2', </v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'V2', </v>
+        <f t="shared" si="9"/>
+        <v>V3hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="10"/>
+        <v>real V3 =  ((V3hyper * 0.5) + 0.5);</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">V3hyper = 0.4, </v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">V3hyper = 0.6, </v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">V3hyper = 0.5, </v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="14"/>
+        <v>real V3hyper;</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1678,53 +2069,77 @@
       <c r="G18">
         <v>3</v>
       </c>
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v>V4 ~ uniform(1, 3);</v>
+      </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>V4 ~ uniform(1, 3);</v>
-      </c>
-      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>real V4;</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="3"/>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit3_4;</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="M18" t="s">
-        <v>51</v>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
-      </c>
-      <c r="P18">
         <v>1.9</v>
       </c>
+      <c r="P18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V4 = 2, </v>
+      </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">V4 = 2, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V4 = 2.5, </v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">V4 = 2.5, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">V4 = 1.9, </v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">V4 = 1.9, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'V3', </v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'V3', </v>
+        <f t="shared" si="9"/>
+        <v>V4hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="10"/>
+        <v>real V4 =  ((V4hyper * 2) + 1);</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">V4hyper = 0.5, </v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">V4hyper = 0.75, </v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">V4hyper = 0.45, </v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="14"/>
+        <v>real V4hyper;</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1744,71 +2159,121 @@
       <c r="G19">
         <v>7</v>
       </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v>V5 ~ uniform(3, 7);</v>
+      </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>V5 ~ uniform(3, 7);</v>
-      </c>
-      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>real V5;</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="3"/>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
         <v>vector[N] audit3_5;</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="M19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19">
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19">
         <f>(G19-F19)/2 +F19</f>
         <v>5</v>
       </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
       <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
         <v>5.5</v>
       </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">V5 = 5, </v>
+      </c>
       <c r="Q19" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">V5 = 5, </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">V5 = 6, </v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">V5 = 6, </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">V5 = 5.5, </v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">V5 = 5.5, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">'V4', </v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">'V4', </v>
+        <f t="shared" si="9"/>
+        <v>V5hyper ~ beta(2, 2);</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="10"/>
+        <v>real V5 =  ((V5hyper * 4) + 3);</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">V5hyper = 0.5, </v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">V5hyper = 0.75, </v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">V5hyper = 0.625, </v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="14"/>
+        <v>real V5hyper;</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P22" t="str">
+        <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
+        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0.001, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
+      </c>
       <c r="Q22" t="str">
-        <f>CONCATENATE("sigma = 10, binge = 6, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
+        <f>CONCATENATE("sigma = 12, binge = 5, ", Q3,Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17, Q18, Q19)</f>
+        <v xml:space="preserve">sigma = 12, binge = 5, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0.01, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
       </c>
       <c r="R22" t="str">
-        <f>CONCATENATE("sigma = 12, binge = 5, ", R3,R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19)</f>
-        <v xml:space="preserve">sigma = 12, binge = 5, F2 = 0.192, F3 = 0.767, F4 = 2.5, F5 = 4.667, F6 = 6.667, Q1 = 1.667, Q2 = 3.667, Q3 = 5.667, Q4 = 8.333, Q5 = 11.333, Q6 = 14.333, Q7 = 21, V1 = 0, V2 = 0.4, V3 = 0.8, V4 = 2.5, V5 = 6, </v>
+        <f>CONCATENATE("sigma = 8, binge = 7, ", R3,R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19)</f>
+        <v xml:space="preserve">sigma = 8, binge = 7, F2 = 0.162, F3 = 0.65, F4 = 2.412, F5 = 4.412, F6 = 6.412, Q1 = 1.412, Q2 = 3.412, Q3 = 5.412, Q4 = 7.824, Q5 = 10.824, Q6 = 13.824, Q7 = 19, V1 = 0.05, V2 = 0.25, V3 = 0.75, V4 = 1.9, V5 = 5.5, </v>
       </c>
       <c r="S22" t="str">
-        <f>CONCATENATE("sigma = 8, binge = 7, ", S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
-        <v xml:space="preserve">sigma = 8, binge = 7, F2 = 0.162, F3 = 0.65, F4 = 2.412, F5 = 4.412, F6 = 6.412, Q1 = 1.412, Q2 = 3.412, Q3 = 5.412, Q4 = 7.824, Q5 = 10.824, Q6 = 13.824, Q7 = 19, V1 = 0.05, V2 = 0.25, V3 = 0.75, V4 = 1.9, V5 = 5.5, </v>
-      </c>
-      <c r="T22" t="str">
-        <f>CONCATENATE(T3,T4, T5, T6, T7, T8, T9, T10, T11, T12, T13, T14, T15, T16, T17, T18, T19)</f>
+        <f>CONCATENATE(S3,S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19)</f>
         <v xml:space="preserve">'F1', 'F2', 'F3', 'F4', 'F5', 'F6', 'Q1', 'Q2', 'Q3', 'Q4', 'Q5', 'Q6', 'Q7', 'V1', 'V2', 'V3', 'V4', </v>
+      </c>
+      <c r="V22" t="str">
+        <f>CONCATENATE("sigma = 10, binge = 6, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
+        <v xml:space="preserve">sigma = 10, binge = 6, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.5, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.727, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
+      </c>
+      <c r="W22" t="str">
+        <f>CONCATENATE("sigma = 12, binge = 5, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
+        <v xml:space="preserve">sigma = 12, binge = 5, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.583, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.788, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
+      </c>
+      <c r="X22" t="str">
+        <f>CONCATENATE("sigma = 8, binge = 7, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
+        <v xml:space="preserve">sigma = 8, binge = 7, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.456, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.695, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1327,11 @@
         <v>4.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="17"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
-        <v>Q3 ~ uniform(4.5, 6.5);</v>
+        <v>Q3 ~ uniform(4.5, 7);</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1382,19 +1381,19 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="10"/>
-        <v>real Q3 =  ((Q3hyper * 2) + 4.5);</v>
+        <v>real Q3 =  ((Q3hyper * 2.5) + 4.5);</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Q3hyper = 0.5, </v>
+        <v xml:space="preserve">Q3hyper = 0.4, </v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Q3hyper = 0.583, </v>
+        <v xml:space="preserve">Q3hyper = 0.467, </v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Q3hyper = 0.456, </v>
+        <v xml:space="preserve">Q3hyper = 0.365, </v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="14"/>
@@ -1607,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13" si="20">E13+0.5</f>
@@ -1615,7 +1614,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
-        <v>Q6 ~ uniform(10, 15.5);</v>
+        <v>Q6 ~ uniform(9.5, 15.5);</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -1665,19 +1664,19 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="10"/>
-        <v>real Q6 =  ((Q6hyper * 5.5) + 10);</v>
+        <v>real Q6 =  ((Q6hyper * 6) + 9.5);</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Q6hyper = 0.727, </v>
+        <v xml:space="preserve">Q6hyper = 0.75, </v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Q6hyper = 0.788, </v>
+        <v xml:space="preserve">Q6hyper = 0.806, </v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Q6hyper = 0.695, </v>
+        <v xml:space="preserve">Q6hyper = 0.721, </v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="14"/>
@@ -2247,15 +2246,15 @@
       </c>
       <c r="V22" t="str">
         <f>CONCATENATE("sigma = 10, binge = 6, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.5, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.727, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
+        <v xml:space="preserve">sigma = 10, binge = 6, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.4, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
       </c>
       <c r="W22" t="str">
         <f>CONCATENATE("sigma = 12, binge = 5, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
-        <v xml:space="preserve">sigma = 12, binge = 5, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.583, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.788, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
+        <v xml:space="preserve">sigma = 12, binge = 5, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.467, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
       </c>
       <c r="X22" t="str">
         <f>CONCATENATE("sigma = 8, binge = 7, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
-        <v xml:space="preserve">sigma = 8, binge = 7, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.456, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.695, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
+        <v xml:space="preserve">sigma = 8, binge = 7, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.365, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
       </c>
     </row>
   </sheetData>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="17">E8+0.5</f>
+        <f t="shared" ref="G8:G9" si="17">E8+0.5</f>
         <v>2.5</v>
       </c>
       <c r="H8" t="str">
@@ -2245,16 +2245,16 @@
         <v xml:space="preserve">'F1', 'F2', 'F3', 'F4', 'F5', 'F6', 'Q1', 'Q2', 'Q3', 'Q4', 'Q5', 'Q6', 'Q7', 'V1', 'V2', 'V3', 'V4', </v>
       </c>
       <c r="V22" t="str">
-        <f>CONCATENATE("sigma = 10, binge = 6, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
-        <v xml:space="preserve">sigma = 10, binge = 6, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.4, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
+        <f>CONCATENATE("sigma = 10, bingehyper = 1, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
+        <v xml:space="preserve">sigma = 10, bingehyper = 1, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.4, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
       </c>
       <c r="W22" t="str">
-        <f>CONCATENATE("sigma = 12, binge = 5, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
-        <v xml:space="preserve">sigma = 12, binge = 5, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.467, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
+        <f>CONCATENATE("sigma = 12, bingehyper = 0, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
+        <v xml:space="preserve">sigma = 12, bingehyper = 0, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.467, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
       </c>
       <c r="X22" t="str">
-        <f>CONCATENATE("sigma = 8, binge = 7, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
-        <v xml:space="preserve">sigma = 8, binge = 7, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.365, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
+        <f>CONCATENATE("sigma = 8, bingehyper = 2, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
+        <v xml:space="preserve">sigma = 8, bingehyper = 2, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.365, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
       </c>
     </row>
   </sheetData>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -1327,11 +1327,11 @@
         <v>4.5</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
-        <v>Q3 ~ uniform(4.5, 7);</v>
+        <v>Q3 ~ uniform(4.5, 6);</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1381,19 +1381,19 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="10"/>
-        <v>real Q3 =  ((Q3hyper * 2.5) + 4.5);</v>
+        <v>real Q3 =  ((Q3hyper * 1.5) + 4.5);</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Q3hyper = 0.4, </v>
+        <v xml:space="preserve">Q3hyper = 0.667, </v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Q3hyper = 0.467, </v>
+        <v xml:space="preserve">Q3hyper = 0.778, </v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Q3hyper = 0.365, </v>
+        <v xml:space="preserve">Q3hyper = 0.608, </v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="14"/>
@@ -1417,7 +1417,6 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <f>D11-0.5</f>
         <v>6.5</v>
       </c>
       <c r="G11">
@@ -2246,15 +2245,15 @@
       </c>
       <c r="V22" t="str">
         <f>CONCATENATE("sigma = 10, bingehyper = 1, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
-        <v xml:space="preserve">sigma = 10, bingehyper = 1, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.4, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
+        <v xml:space="preserve">sigma = 10, bingehyper = 1, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.667, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
       </c>
       <c r="W22" t="str">
         <f>CONCATENATE("sigma = 12, bingehyper = 0, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
-        <v xml:space="preserve">sigma = 12, bingehyper = 0, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.467, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
+        <v xml:space="preserve">sigma = 12, bingehyper = 0, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.778, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
       </c>
       <c r="X22" t="str">
         <f>CONCATENATE("sigma = 8, bingehyper = 2, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
-        <v xml:space="preserve">sigma = 8, bingehyper = 2, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.365, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
+        <v xml:space="preserve">sigma = 8, bingehyper = 2, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.608, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
       </c>
     </row>
   </sheetData>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,11 +1327,11 @@
         <v>4.5</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
-        <v>Q3 ~ uniform(4.5, 6);</v>
+        <v>Q3 ~ uniform(4.5, 6.5);</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1381,19 +1381,19 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="10"/>
-        <v>real Q3 =  ((Q3hyper * 1.5) + 4.5);</v>
+        <v>real Q3 =  ((Q3hyper * 2) + 4.5);</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Q3hyper = 0.667, </v>
+        <v xml:space="preserve">Q3hyper = 0.5, </v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Q3hyper = 0.778, </v>
+        <v xml:space="preserve">Q3hyper = 0.583, </v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Q3hyper = 0.608, </v>
+        <v xml:space="preserve">Q3hyper = 0.456, </v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="14"/>
@@ -1793,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
-        <v>V1 ~ uniform(0, 0.1);</v>
+        <v>V1 ~ uniform(0, 0.2);</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -1844,19 +1844,19 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="10"/>
-        <v>real V1 =  ((V1hyper * 0.1) + 0);</v>
+        <v>real V1 =  ((V1hyper * 0.2) + 0);</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">V1hyper = 0.01, </v>
+        <v xml:space="preserve">V1hyper = 0.005, </v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">V1hyper = 0.1, </v>
+        <v xml:space="preserve">V1hyper = 0.05, </v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">V1hyper = 0.5, </v>
+        <v xml:space="preserve">V1hyper = 0.25, </v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="14"/>
@@ -1881,14 +1881,14 @@
         <v>0.11506849315068493</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
         <v>0.5</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="4"/>
-        <v>V2 ~ uniform(0.1, 0.5);</v>
+        <v>V2 ~ uniform(0.2, 0.5);</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -1935,19 +1935,19 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="10"/>
-        <v>real V2 =  ((V2hyper * 0.4) + 0.1);</v>
+        <v>real V2 =  ((V2hyper * 0.3) + 0.2);</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">V2hyper = 0.5, </v>
+        <v xml:space="preserve">V2hyper = 0.333, </v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">V2hyper = 0.75, </v>
+        <v xml:space="preserve">V2hyper = 0.667, </v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">V2hyper = 0.375, </v>
+        <v xml:space="preserve">V2hyper = 0.167, </v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="14"/>
@@ -2245,15 +2245,15 @@
       </c>
       <c r="V22" t="str">
         <f>CONCATENATE("sigma = 10, bingehyper = 1, ", V3,V4, V5, V6, V7, V8, V9, V10, V11, V12, V13, V14, V15, V16, V17, V18, V19)</f>
-        <v xml:space="preserve">sigma = 10, bingehyper = 1, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.667, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.01, V2hyper = 0.5, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
+        <v xml:space="preserve">sigma = 10, bingehyper = 1, F2hyper = 0.182, F3hyper = 0.19, F4hyper = 0.4, F5hyper = 0.75, F6hyper = 0.75, Q1hyper = 0.333, Q2hyper = 0.5, Q3hyper = 0.5, Q4hyper = 0.5, Q5hyper = 0.75, Q6hyper = 0.75, Q7hyper = 0.474, V1hyper = 0.005, V2hyper = 0.333, V3hyper = 0.4, V4hyper = 0.5, V5hyper = 0.5, </v>
       </c>
       <c r="W22" t="str">
         <f>CONCATENATE("sigma = 12, bingehyper = 0, ", W3,W4, W5, W6, W7, W8, W9, W10, W11, W12, W13, W14, W15, W16, W17, W18, W19)</f>
-        <v xml:space="preserve">sigma = 12, bingehyper = 0, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.778, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.1, V2hyper = 0.75, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
+        <v xml:space="preserve">sigma = 12, bingehyper = 0, F2hyper = 0.229, F3hyper = 0.267, F4hyper = 0.667, F5hyper = 0.833, F6hyper = 0.833, Q1hyper = 0.444, Q2hyper = 0.583, Q3hyper = 0.583, Q4hyper = 0.611, Q5hyper = 0.917, Q6hyper = 0.806, Q7hyper = 0.579, V1hyper = 0.05, V2hyper = 0.667, V3hyper = 0.6, V4hyper = 0.75, V5hyper = 0.75, </v>
       </c>
       <c r="X22" t="str">
         <f>CONCATENATE("sigma = 8, bingehyper = 2, ", X3,X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19)</f>
-        <v xml:space="preserve">sigma = 8, bingehyper = 2, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.608, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.5, V2hyper = 0.375, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
+        <v xml:space="preserve">sigma = 8, bingehyper = 2, F2hyper = 0.156, F3hyper = 0.15, F4hyper = 0.608, F5hyper = 0.706, F6hyper = 0.706, Q1hyper = 0.275, Q2hyper = 0.456, Q3hyper = 0.456, Q4hyper = 0.441, Q5hyper = 0.662, Q6hyper = 0.721, Q7hyper = 0.368, V1hyper = 0.25, V2hyper = 0.167, V3hyper = 0.5, V4hyper = 0.45, V5hyper = 0.625, </v>
       </c>
     </row>
   </sheetData>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejjpfd\AppData\Local\0 git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfdm1m17\git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Never</t>
   </si>
@@ -105,9 +105,6 @@
     <t>max_nominal</t>
   </si>
   <si>
-    <t>max_prio</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>define_modified_param</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>max_prior</t>
   </si>
 </sst>
 </file>
@@ -540,23 +543,26 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" customWidth="1"/>
-    <col min="22" max="25" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.44140625" customWidth="1"/>
+    <col min="22" max="25" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -573,63 +579,63 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
       <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -650,9 +656,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -690,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3">
         <f>(E3-D3)/2 +D3</f>
@@ -745,9 +751,9 @@
         <v>real F2hyper;</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -785,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4">
         <f>(E4-D4)/2 +D4</f>
@@ -840,9 +846,9 @@
         <v>real F3hyper;</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -878,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5">
         <v>2.1</v>
@@ -931,9 +937,9 @@
         <v>real F4hyper;</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -969,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <f>(E6-D6)/2 +D6</f>
@@ -1024,9 +1030,9 @@
         <v>real F5hyper;</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1062,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7:M13" si="16">(E7-D7)/2 +D7</f>
@@ -1117,9 +1123,9 @@
         <v>real F6hyper;</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1156,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8">
         <f t="shared" si="16"/>
@@ -1211,9 +1217,9 @@
         <v>real Q1hyper;</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1251,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <f t="shared" si="16"/>
@@ -1306,9 +1312,9 @@
         <v>real Q2hyper;</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1345,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10">
         <f t="shared" si="16"/>
@@ -1400,9 +1406,9 @@
         <v>real Q3hyper;</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1439,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11">
         <f t="shared" si="16"/>
@@ -1494,9 +1500,9 @@
         <v>real Q4hyper;</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1533,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12">
         <f t="shared" si="16"/>
@@ -1588,9 +1594,9 @@
         <v>real Q5hyper;</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1627,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13">
         <f t="shared" si="16"/>
@@ -1682,9 +1688,9 @@
         <v>real Q6hyper;</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1721,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M14">
         <v>20</v>
@@ -1773,9 +1779,9 @@
         <v>real Q7hyper;</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1811,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15">
         <v>1E-3</v>
@@ -1863,9 +1869,9 @@
         <v>real V1hyper;</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1902,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16">
         <v>0.3</v>
@@ -1954,9 +1960,9 @@
         <v>real V2hyper;</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1993,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17">
         <v>0.7</v>
@@ -2045,9 +2051,9 @@
         <v>real V3hyper;</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -2083,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -2135,9 +2141,9 @@
         <v>real V4hyper;</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2173,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19">
         <f>(G19-F19)/2 +F19</f>
@@ -2226,7 +2232,7 @@
         <v>real V5hyper;</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P22" t="str">
         <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
         <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0.001, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
@@ -2270,7 +2276,7 @@
       <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_estimate_weights/AUDIT_item_intervals.xlsx
+++ b/03_estimate_weights/AUDIT_item_intervals.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfdm1m17\git repos\00_Soton_alcohol\ewac_concurrent_validity\03_estimate_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejjpfd\AppData\Local\0 git repos\00_Soton_alcohol\ewac-validation\03_estimate_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614560DE-2C45-4899-B449-32E8C3875D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Never</t>
   </si>
@@ -223,12 +233,15 @@
   </si>
   <si>
     <t>max_prior</t>
+  </si>
+  <si>
+    <t>untransform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,27 +552,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.44140625" customWidth="1"/>
-    <col min="22" max="25" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" customWidth="1"/>
+    <col min="22" max="25" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -632,8 +645,11 @@
       <c r="Y1" t="s">
         <v>63</v>
       </c>
+      <c r="Z1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -656,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -750,8 +766,12 @@
         <f>"real "&amp;$A3&amp;"hyper;"</f>
         <v>real F2hyper;</v>
       </c>
+      <c r="Z3" t="str">
+        <f>"stat_function(aes(colour = '"&amp;A3&amp;"', linetype = 'Prior'), fun = function(x) { dbeta( (x - "&amp;$F3&amp;")/"&amp;($G3 - $F3)&amp;", 2, 2) }) +"</f>
+        <v>stat_function(aes(colour = 'F2', linetype = 'Prior'), fun = function(x) { dbeta( (x - 0.1)/0.4, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -845,8 +865,12 @@
         <f t="shared" ref="Y4:Y19" si="14">"real "&amp;$A4&amp;"hyper;"</f>
         <v>real F3hyper;</v>
       </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z19" si="15">"stat_function(aes(colour = '"&amp;A4&amp;"', linetype = 'Prior'), fun = function(x) { dbeta( (x - "&amp;$F4&amp;")/"&amp;($G4 - $F4)&amp;", 2, 2) }) +"</f>
+        <v>stat_function(aes(colour = 'F3', linetype = 'Prior'), fun = function(x) { dbeta( (x - 0.5)/1, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -936,8 +960,12 @@
         <f t="shared" si="14"/>
         <v>real F4hyper;</v>
       </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'F4', linetype = 'Prior'), fun = function(x) { dbeta( (x - 1.5)/1.5, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -982,7 +1010,7 @@
         <v>4.5</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N13" si="15">(E6-D6)/1.5 +D6</f>
+        <f t="shared" ref="N6:N13" si="16">(E6-D6)/1.5 +D6</f>
         <v>4.666666666666667</v>
       </c>
       <c r="O6">
@@ -1029,8 +1057,12 @@
         <f t="shared" si="14"/>
         <v>real F5hyper;</v>
       </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'F5', linetype = 'Prior'), fun = function(x) { dbeta( (x - 3)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1071,11 +1103,11 @@
         <v>51</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M13" si="16">(E7-D7)/2 +D7</f>
+        <f t="shared" ref="M7:M13" si="17">(E7-D7)/2 +D7</f>
         <v>6.5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.666666666666667</v>
       </c>
       <c r="O7">
@@ -1122,8 +1154,12 @@
         <f t="shared" si="14"/>
         <v>real F6hyper;</v>
       </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'F6', linetype = 'Prior'), fun = function(x) { dbeta( (x - 5)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G9" si="17">E8+0.5</f>
+        <f t="shared" ref="G8:G9" si="18">E8+0.5</f>
         <v>2.5</v>
       </c>
       <c r="H8" t="str">
@@ -1165,11 +1201,11 @@
         <v>52</v>
       </c>
       <c r="M8">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="15"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="O8">
@@ -1216,8 +1252,12 @@
         <f t="shared" si="14"/>
         <v>real Q1hyper;</v>
       </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q1', linetype = 'Prior'), fun = function(x) { dbeta( (x - 1)/1.5, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1234,11 +1274,11 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="18">D9-0.5</f>
+        <f t="shared" ref="F9:F10" si="19">D9-0.5</f>
         <v>2.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.5</v>
       </c>
       <c r="H9" t="str">
@@ -1260,11 +1300,11 @@
         <v>47</v>
       </c>
       <c r="M9">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="16"/>
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="15"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="O9">
@@ -1311,8 +1351,12 @@
         <f t="shared" si="14"/>
         <v>real Q2hyper;</v>
       </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q2', linetype = 'Prior'), fun = function(x) { dbeta( (x - 2.5)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="G10">
@@ -1354,11 +1398,11 @@
         <v>48</v>
       </c>
       <c r="M10">
+        <f t="shared" si="17"/>
+        <v>5.5</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="16"/>
-        <v>5.5</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="15"/>
         <v>5.666666666666667</v>
       </c>
       <c r="O10">
@@ -1405,8 +1449,12 @@
         <f t="shared" si="14"/>
         <v>real Q3hyper;</v>
       </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q3', linetype = 'Prior'), fun = function(x) { dbeta( (x - 4.5)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1448,11 +1496,11 @@
         <v>49</v>
       </c>
       <c r="M11">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="15"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="O11">
@@ -1499,8 +1547,12 @@
         <f t="shared" si="14"/>
         <v>real Q4hyper;</v>
       </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q4', linetype = 'Prior'), fun = function(x) { dbeta( (x - 6.5)/3, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1517,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="19">D12-0.5</f>
+        <f t="shared" ref="F12:F14" si="20">D12-0.5</f>
         <v>9.5</v>
       </c>
       <c r="G12">
@@ -1542,11 +1594,11 @@
         <v>50</v>
       </c>
       <c r="M12">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="15"/>
         <v>11.333333333333334</v>
       </c>
       <c r="O12">
@@ -1593,8 +1645,12 @@
         <f t="shared" si="14"/>
         <v>real Q5hyper;</v>
       </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q5', linetype = 'Prior'), fun = function(x) { dbeta( (x - 9.5)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1670,7 @@
         <v>9.5</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="20">E13+0.5</f>
+        <f t="shared" ref="G13" si="21">E13+0.5</f>
         <v>15.5</v>
       </c>
       <c r="H13" t="str">
@@ -1636,11 +1692,11 @@
         <v>51</v>
       </c>
       <c r="M13">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="15"/>
         <v>14.333333333333334</v>
       </c>
       <c r="O13">
@@ -1687,8 +1743,12 @@
         <f t="shared" si="14"/>
         <v>real Q6hyper;</v>
       </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q6', linetype = 'Prior'), fun = function(x) { dbeta( (x - 9.5)/6, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15.5</v>
       </c>
       <c r="G14">
@@ -1778,8 +1838,12 @@
         <f t="shared" si="14"/>
         <v>real Q7hyper;</v>
       </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'Q7', linetype = 'Prior'), fun = function(x) { dbeta( (x - 15.5)/9.5, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1868,8 +1932,12 @@
         <f t="shared" si="14"/>
         <v>real V1hyper;</v>
       </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'V1', linetype = 'Prior'), fun = function(x) { dbeta( (x - 0)/0.2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2027,12 @@
         <f t="shared" si="14"/>
         <v>real V2hyper;</v>
       </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'V2', linetype = 'Prior'), fun = function(x) { dbeta( (x - 0.2)/0.3, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2050,8 +2122,12 @@
         <f t="shared" si="14"/>
         <v>real V3hyper;</v>
       </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'V3', linetype = 'Prior'), fun = function(x) { dbeta( (x - 0.5)/0.5, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2216,12 @@
         <f t="shared" si="14"/>
         <v>real V4hyper;</v>
       </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'V4', linetype = 'Prior'), fun = function(x) { dbeta( (x - 1)/2, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2231,8 +2311,12 @@
         <f t="shared" si="14"/>
         <v>real V5hyper;</v>
       </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="15"/>
+        <v>stat_function(aes(colour = 'V5', linetype = 'Prior'), fun = function(x) { dbeta( (x - 3)/4, 2, 2) }) +</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P22" t="str">
         <f>CONCATENATE("sigma = 10, binge = 6, ", P3,P4, P5, P6, P7, P8, P9, P10, P11, P12, P13, P14, P15, P16, P17, P18, P19)</f>
         <v xml:space="preserve">sigma = 10, binge = 6, F2 = 0.173, F3 = 0.69, F4 = 2.1, F5 = 4.5, F6 = 6.5, Q1 = 1.5, Q2 = 3.5, Q3 = 5.5, Q4 = 8, Q5 = 11, Q6 = 14, Q7 = 20, V1 = 0.001, V2 = 0.3, V3 = 0.7, V4 = 2, V5 = 5, </v>
@@ -2269,14 +2353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
